--- a/amazon_phone_5_products.xlsx
+++ b/amazon_phone_5_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Image_URL</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product_Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,86 +477,131 @@
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6,805</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>https://m.media-amazon.com/images/I/81T3olLXpUL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Samsung-Storage-Display-Charging-Security/dp/B0DFY3XCB6/ref=sr_1_1?dib=eyJ2IjoiMSJ9.FiNIXyCkpplUYQnRywN9fxa0TrZlFJbzzFO3cnlNtDuJ_6Lz9iTpbQM0ZQdRMkmCQtNvyuxCOdf_RPpfXzWxhz84YfYcbv9wJGObjXBwK8xUTzcMBaXHM1EwcKbdwoolgOAYqDe9qHuFvhPYDwtgu6OuvLmFV_F6AJ9vzO3PIvL6I1VgDIJhc3Lw1hEgWW5TW1BgXYjsWA6ev6bXoMYVFWsGdiuyL_97C-Ut2x3FNZs.bd4NeZdD300ypM4C5iECvEPzMM7JNf3neq6M1GNxv58&amp;dib_tag=se&amp;keywords=phone&amp;qid=1758203424&amp;sr=8-1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nokia 105 Classic | Single SIM Keypad Phone with Built-in UPI Payments, Long-Lasting Battery, Wireless FM Radio | Without Charger | Blue</t>
+          <t>Nothing Phone (3A) 5G (White, 8GB RAM, 256GB Storage)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>23,476</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51JF6aannbL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61Fs05Q7TZL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Nothing-Phone-White-256GB-Storage/dp/B0DZNP1MN3/ref=sr_1_2?dib=eyJ2IjoiMSJ9.FiNIXyCkpplUYQnRywN9fxa0TrZlFJbzzFO3cnlNtDuJ_6Lz9iTpbQM0ZQdRMkmCQtNvyuxCOdf_RPpfXzWxhz84YfYcbv9wJGObjXBwK8xUTzcMBaXHM1EwcKbdwoolgOAYqDe9qHuFvhPYDwtgu6OuvLmFV_F6AJ9vzO3PIvL6I1VgDIJhc3Lw1hEgWW5TW1BgXYjsWA6ev6bXoMYVFWsGdiuyL_97C-Ut2x3FNZs.bd4NeZdD300ypM4C5iECvEPzMM7JNf3neq6M1GNxv58&amp;dib_tag=se&amp;keywords=phone&amp;qid=1758203424&amp;sr=8-2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nothing Phone (3A) 5G (White, 8GB RAM, 256GB Storage)</t>
+          <t>Nokia 105 Classic | Single SIM Keypad Phone with Built-in UPI Payments, Long-Lasting Battery, Wireless FM Radio | Without Charger | Blue</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23,678</t>
+          <t>949</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19,578</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Fs05Q7TZL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51JF6aannbL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/Nokia-Classic-Payments-Long-Lasting-Wireless/dp/B0CJMJQ1QD/ref=sr_1_3?dib=eyJ2IjoiMSJ9.FiNIXyCkpplUYQnRywN9fxa0TrZlFJbzzFO3cnlNtDuJ_6Lz9iTpbQM0ZQdRMkmCQtNvyuxCOdf_RPpfXzWxhz84YfYcbv9wJGObjXBwK8xUTzcMBaXHM1EwcKbdwoolgOAYqDe9qHuFvhPYDwtgu6OuvLmFV_F6AJ9vzO3PIvL6I1VgDIJhc3Lw1hEgWW5TW1BgXYjsWA6ev6bXoMYVFWsGdiuyL_97C-Ut2x3FNZs.bd4NeZdD300ypM4C5iECvEPzMM7JNf3neq6M1GNxv58&amp;dib_tag=se&amp;keywords=phone&amp;qid=1758203424&amp;sr=8-3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>realme NARZO 80 Lite 4G (Beach Gold, 4GB+64GB) | 6300mAh Segment's Biggest Battery | 7.94mm Slim Design | 300% Ultra Volume | Pulse Light: 9 Colors, 5 Glow Modes | Ai Assist</t>
+          <t>POCO C71, Desert Gold (6GB, 128GB)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7,298</t>
+          <t>6,799</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71O5RK8qS3L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/610frsvhyBL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/POCO-C71-Desert-Gold-128GB/dp/B0F53RRM5B/ref=sr_1_4?dib=eyJ2IjoiMSJ9.FiNIXyCkpplUYQnRywN9fxa0TrZlFJbzzFO3cnlNtDuJ_6Lz9iTpbQM0ZQdRMkmCQtNvyuxCOdf_RPpfXzWxhz84YfYcbv9wJGObjXBwK8xUTzcMBaXHM1EwcKbdwoolgOAYqDe9qHuFvhPYDwtgu6OuvLmFV_F6AJ9vzO3PIvL6I1VgDIJhc3Lw1hEgWW5TW1BgXYjsWA6ev6bXoMYVFWsGdiuyL_97C-Ut2x3FNZs.bd4NeZdD300ypM4C5iECvEPzMM7JNf3neq6M1GNxv58&amp;dib_tag=se&amp;keywords=phone&amp;qid=1758203424&amp;sr=8-4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OnePlus Nord CE4 Lite 5G (Super Silver, 8GB RAM, 128GB Storage) | Lifetime Display Warranty | 5500 mAh Battery, 80W SUPERVOOC and Reverse Charging | 50MP Camera with OIS | 120Hz AMOLED Display</t>
+          <t>CMF Phone 2 Pro 5G (White, 8GB RAM, 128GB Storage)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16,998</t>
+          <t>17,207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Io5-ojWUL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71l4ZcTLEYL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in/CMF-BY-NOTHING-A001/dp/B0F788N3LJ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.FiNIXyCkpplUYQnRywN9fxa0TrZlFJbzzFO3cnlNtDuJ_6Lz9iTpbQM0ZQdRMkmCQtNvyuxCOdf_RPpfXzWxhz84YfYcbv9wJGObjXBwK8xUTzcMBaXHM1EwcKbdwoolgOAYqDe9qHuFvhPYDwtgu6OuvLmFV_F6AJ9vzO3PIvL6I1VgDIJhc3Lw1hEgWW5TW1BgXYjsWA6ev6bXoMYVFWsGdiuyL_97C-Ut2x3FNZs.bd4NeZdD300ypM4C5iECvEPzMM7JNf3neq6M1GNxv58&amp;dib_tag=se&amp;keywords=phone&amp;qid=1758203424&amp;sr=8-5</t>
         </is>
       </c>
     </row>
